--- a/SourceData/SBS-Specification.xlsx
+++ b/SourceData/SBS-Specification.xlsx
@@ -12,19 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="7663" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Specification" sheetId="2" r:id="rId1"/>
+    <sheet name="Spec" sheetId="4" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId3"/>
+    <sheet name="Policies" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$XCT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calculations!$A$1:$XCT$1</definedName>
     <definedName name="Method">'[1]Version Control'!$I$7:$I$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -169,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="777">
   <si>
     <t>Product Folder</t>
   </si>
@@ -2625,6 +2627,66 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>School Budget Share</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>93f568b56656481ab43ac14119890c7f</t>
+  </si>
+  <si>
+    <t>bb411f3c107a40a8a71ff57604296e0e</t>
+  </si>
+  <si>
+    <t>cc9eac91ede6480eb46f748efb3a9d11</t>
+  </si>
+  <si>
+    <t>dfd825e4a5784fa188379b080fa0c4ae</t>
+  </si>
+  <si>
+    <t>524c10bb461b46f3b351b86403168379</t>
+  </si>
+  <si>
+    <t>86e2181721da4a669a09cccbafc502f1</t>
+  </si>
+  <si>
+    <t>3e4d786c0a984c6c9eb92a959ef1e5f5</t>
+  </si>
+  <si>
+    <t>41e8854d7b7e4ecdb46bbc643a62d19e</t>
+  </si>
+  <si>
+    <t>41080d8da69046e3a26ff4fb6894eaa8</t>
+  </si>
+  <si>
+    <t>c6b57f57424c494fb0ed394ffb1af34c</t>
+  </si>
+  <si>
+    <t>4eda722dff5b4f6f9e3d13eae928be8a</t>
+  </si>
+  <si>
+    <t>6857aab8747c4d699b69bba5858b98a3</t>
+  </si>
+  <si>
+    <t>b2e46eab20374cd1864365a94a7ab9b3</t>
+  </si>
+  <si>
+    <t>General Annual Grant 18-19</t>
+  </si>
+  <si>
+    <t>AcademicYear</t>
+  </si>
+  <si>
+    <t>852f8537474e405c93924a197f72617b</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2820,6 +2882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3192,7 +3255,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="STEPHENSON, Gavin" refreshedDate="43081.51631875" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="300">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:I1048576" sheet="Calculations"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Product Folder" numFmtId="0">
@@ -6955,7 +7018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A3:F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7213,11 +7278,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="33.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14999,4 +15148,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="33" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>768</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C13" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>